--- a/a/QueryGtnLevelJT_1.0.xlsx
+++ b/a/QueryGtnLevelJT_1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,28 +250,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ddfd</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>resp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -384,6 +398,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -391,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -404,17 +455,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,6 +470,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -815,151 +869,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
@@ -976,73 +1030,100 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="27">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="27">
+      <c r="A18" s="14"/>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="17">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A13"/>
